--- a/Documents/02 - Phan tich/Dac ta Use-case.xlsx
+++ b/Documents/02 - Phan tich/Dac ta Use-case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GocHocTap\HOAN CHINH DAI HOC\Nhap mon cong nghe phan mem\Project\trunk\Documents\02 - Phan tich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9046C80-A597-4097-8A0F-3ECF3383856E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425267AB-0E3C-487E-924C-7D2AEAAE1486}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B887B71F-1AAA-4A03-A611-BB9BEA37B030}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Use case ID</t>
   </si>
@@ -151,6 +151,25 @@
 3. Hệ thống ẩn hiện các button chức năng tương ứng với quyền của loại tài khoản đó
 3. Hệ thống hiển thị danh sách thông tin phạm nhân
 </t>
+  </si>
+  <si>
+    <t>U004</t>
+  </si>
+  <si>
+    <t>Cập nhật tình trạng sức khỏe</t>
+  </si>
+  <si>
+    <t>Cập nhật tình trạng sức khỏe phạm nhân</t>
+  </si>
+  <si>
+    <t>Y tế</t>
+  </si>
+  <si>
+    <t>- Phải đăng nhập thành công
+- User phải thuộc bộ phận y tế</t>
+  </si>
+  <si>
+    <t>Tình trạng sức khỏe của phạm nhân được cập nhật</t>
   </si>
 </sst>
 </file>
@@ -207,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -223,6 +242,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,9 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD4CA17-8D12-439C-BD8D-4FBF57B9F204}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -604,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -759,6 +783,76 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
     </row>
